--- a/Code/Results/Cases/Case_4_179/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_179/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.21692066039058</v>
+        <v>12.34488412926216</v>
       </c>
       <c r="C2">
-        <v>7.860390444111438</v>
+        <v>10.53754694196525</v>
       </c>
       <c r="D2">
-        <v>7.075321001205561</v>
+        <v>5.998283038567663</v>
       </c>
       <c r="E2">
-        <v>8.042413374157462</v>
+        <v>13.088582084101</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>25.51727836612655</v>
+        <v>34.60046559357446</v>
       </c>
       <c r="H2">
-        <v>9.717365233200921</v>
+        <v>15.81609794807873</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.91075119627909</v>
+        <v>8.743748939633958</v>
       </c>
       <c r="L2">
-        <v>6.173979790659001</v>
+        <v>9.916044921239543</v>
       </c>
       <c r="M2">
-        <v>9.696699898978997</v>
+        <v>14.06412561640813</v>
       </c>
       <c r="N2">
-        <v>13.06852264971116</v>
+        <v>20.20494549051299</v>
       </c>
       <c r="O2">
-        <v>16.20470546188082</v>
+        <v>24.84269747074645</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.3314207856642</v>
+        <v>12.13014762780094</v>
       </c>
       <c r="C3">
-        <v>7.849776565941889</v>
+        <v>10.53687347929094</v>
       </c>
       <c r="D3">
-        <v>6.589760549027925</v>
+        <v>5.881568747071912</v>
       </c>
       <c r="E3">
-        <v>8.049370968158245</v>
+        <v>13.11777255556099</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>25.15901247416183</v>
+        <v>34.65023836534969</v>
       </c>
       <c r="H3">
-        <v>9.755360662654548</v>
+        <v>15.85780999390773</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.30135721538239</v>
+        <v>8.577283378249001</v>
       </c>
       <c r="L3">
-        <v>6.09230824718478</v>
+        <v>9.922994243321313</v>
       </c>
       <c r="M3">
-        <v>9.375806797280459</v>
+        <v>14.03464532889443</v>
       </c>
       <c r="N3">
-        <v>13.26327320117144</v>
+        <v>20.26382100262406</v>
       </c>
       <c r="O3">
-        <v>16.17459118588706</v>
+        <v>24.90575112223637</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.80491320864645</v>
+        <v>11.99873679461833</v>
       </c>
       <c r="C4">
-        <v>7.843989418417776</v>
+        <v>10.53675326343288</v>
       </c>
       <c r="D4">
-        <v>6.279886817664799</v>
+        <v>5.810450533656493</v>
       </c>
       <c r="E4">
-        <v>8.057484987259107</v>
+        <v>13.13742495078687</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>24.96021331221148</v>
+        <v>34.68970678908941</v>
       </c>
       <c r="H4">
-        <v>9.783974107404445</v>
+        <v>15.8856479508427</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.907902864502388</v>
+        <v>8.474846217240705</v>
       </c>
       <c r="L4">
-        <v>6.044270359411747</v>
+        <v>9.92857355745571</v>
       </c>
       <c r="M4">
-        <v>9.176881385016232</v>
+        <v>14.01858958889535</v>
       </c>
       <c r="N4">
-        <v>13.38564389565385</v>
+        <v>20.30167064027578</v>
       </c>
       <c r="O4">
-        <v>16.1676198736279</v>
+        <v>24.9490146918185</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.58421007397626</v>
+        <v>11.94536795603046</v>
       </c>
       <c r="C5">
-        <v>7.841813308702732</v>
+        <v>10.53677843628117</v>
       </c>
       <c r="D5">
-        <v>6.167252256774305</v>
+        <v>5.781651152467171</v>
       </c>
       <c r="E5">
-        <v>8.061736850369543</v>
+        <v>13.14586860470865</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>24.88446775866785</v>
+        <v>34.70802609415936</v>
       </c>
       <c r="H5">
-        <v>9.796923391038719</v>
+        <v>15.89755217712374</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.74277236132335</v>
+        <v>8.433101588323026</v>
       </c>
       <c r="L5">
-        <v>6.025236660541874</v>
+        <v>9.931177781269209</v>
       </c>
       <c r="M5">
-        <v>9.095462099420876</v>
+        <v>14.01256600316368</v>
       </c>
       <c r="N5">
-        <v>13.43623230710489</v>
+        <v>20.31752334209003</v>
       </c>
       <c r="O5">
-        <v>16.16758700077432</v>
+        <v>24.96778746740788</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.54719512073333</v>
+        <v>11.93651921758548</v>
       </c>
       <c r="C6">
-        <v>7.841462934405379</v>
+        <v>10.53678710738985</v>
       </c>
       <c r="D6">
-        <v>6.148394183500383</v>
+        <v>5.776881340208949</v>
       </c>
       <c r="E6">
-        <v>8.062499354859861</v>
+        <v>13.14729695682007</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>24.87220628668809</v>
+        <v>34.71120288168336</v>
       </c>
       <c r="H6">
-        <v>9.79915032657758</v>
+        <v>15.89956269335421</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.715064890174498</v>
+        <v>8.426171553186707</v>
       </c>
       <c r="L6">
-        <v>6.022109196172922</v>
+        <v>9.931630194636284</v>
       </c>
       <c r="M6">
-        <v>9.081924728102967</v>
+        <v>14.0115972909392</v>
       </c>
       <c r="N6">
-        <v>13.44467658462859</v>
+        <v>20.32018159778107</v>
       </c>
       <c r="O6">
-        <v>16.16774850992584</v>
+        <v>24.97097364059271</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.80196144706932</v>
+        <v>11.99801621075102</v>
       </c>
       <c r="C7">
-        <v>7.843959334613181</v>
+        <v>10.5367533020998</v>
       </c>
       <c r="D7">
-        <v>6.278378264016619</v>
+        <v>5.810061339170534</v>
       </c>
       <c r="E7">
-        <v>8.057538529278352</v>
+        <v>13.13753706259834</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>24.95917054747708</v>
+        <v>34.68994480417011</v>
       </c>
       <c r="H7">
-        <v>9.78414357819983</v>
+        <v>15.88580622767606</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.905695186595171</v>
+        <v>8.474283161963902</v>
       </c>
       <c r="L7">
-        <v>6.044011454406675</v>
+        <v>9.92860733957032</v>
       </c>
       <c r="M7">
-        <v>9.175784609070373</v>
+        <v>14.01850624397643</v>
       </c>
       <c r="N7">
-        <v>13.38632320326918</v>
+        <v>20.30188269806956</v>
       </c>
       <c r="O7">
-        <v>16.16760817929397</v>
+        <v>24.94926324369416</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.91431171091418</v>
+        <v>12.27079493419088</v>
       </c>
       <c r="C8">
-        <v>7.856578485815286</v>
+        <v>10.537254105035</v>
       </c>
       <c r="D8">
-        <v>6.911434629306125</v>
+        <v>5.957953635132041</v>
       </c>
       <c r="E8">
-        <v>8.044002482675326</v>
+        <v>13.09828821519575</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>25.38932332526169</v>
+        <v>34.61577610937546</v>
       </c>
       <c r="H8">
-        <v>9.72934517235494</v>
+        <v>15.83001821852253</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.70466241475939</v>
+        <v>8.686432070498231</v>
       </c>
       <c r="L8">
-        <v>6.145389214509548</v>
+        <v>9.918169032307656</v>
       </c>
       <c r="M8">
-        <v>9.586519245512108</v>
+        <v>14.05353939625256</v>
       </c>
       <c r="N8">
-        <v>13.13510465313294</v>
+        <v>20.22489371009615</v>
       </c>
       <c r="O8">
-        <v>16.191878696941</v>
+        <v>24.86349366055815</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.97380675366057</v>
+        <v>12.80608099710406</v>
       </c>
       <c r="C9">
-        <v>7.887181093097957</v>
+        <v>10.54054573215861</v>
       </c>
       <c r="D9">
-        <v>8.029415530251518</v>
+        <v>6.250353991795447</v>
       </c>
       <c r="E9">
-        <v>8.048866718257527</v>
+        <v>13.03502971112377</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>26.4026135580339</v>
+        <v>34.54116645714353</v>
       </c>
       <c r="H9">
-        <v>9.665640608067179</v>
+        <v>15.73827884621939</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.11678683087458</v>
+        <v>9.098251494392358</v>
       </c>
       <c r="L9">
-        <v>6.36035720886023</v>
+        <v>9.908085026228994</v>
       </c>
       <c r="M9">
-        <v>10.3720939870184</v>
+        <v>14.13823541768264</v>
       </c>
       <c r="N9">
-        <v>12.66371989929431</v>
+        <v>20.08734883865613</v>
       </c>
       <c r="O9">
-        <v>16.33471182628331</v>
+        <v>24.7314398608239</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.33283297950993</v>
+        <v>13.19552713119145</v>
       </c>
       <c r="C10">
-        <v>7.913336642571476</v>
+        <v>10.54434908352278</v>
       </c>
       <c r="D10">
-        <v>8.770613676382856</v>
+        <v>6.464112385317796</v>
       </c>
       <c r="E10">
-        <v>8.072843068775585</v>
+        <v>12.99689254601012</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.25183360147231</v>
+        <v>34.52969125275679</v>
       </c>
       <c r="H10">
-        <v>9.648095069072735</v>
+        <v>15.681635625464</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.05868555019933</v>
+        <v>9.395155838884801</v>
       </c>
       <c r="L10">
-        <v>6.527352262571124</v>
+        <v>9.906967542477824</v>
       </c>
       <c r="M10">
-        <v>10.93139848277525</v>
+        <v>14.20988138893889</v>
       </c>
       <c r="N10">
-        <v>12.32901401188825</v>
+        <v>19.99440068424357</v>
       </c>
       <c r="O10">
-        <v>16.50277134847521</v>
+        <v>24.65651657997451</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.91827882350853</v>
+        <v>13.37104991791745</v>
       </c>
       <c r="C11">
-        <v>7.926057445500309</v>
+        <v>10.54637516432672</v>
       </c>
       <c r="D11">
-        <v>9.090795157522557</v>
+        <v>6.560620749481568</v>
       </c>
       <c r="E11">
-        <v>8.08844573877523</v>
+        <v>12.98134952291793</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>27.66090653559654</v>
+        <v>34.53389476749058</v>
       </c>
       <c r="H11">
-        <v>9.647043927423155</v>
+        <v>15.65820110362894</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.46634781681791</v>
+        <v>9.528384198229874</v>
       </c>
       <c r="L11">
-        <v>6.605113532850559</v>
+        <v>9.907815333796805</v>
       </c>
       <c r="M11">
-        <v>11.18095996142334</v>
+        <v>14.24444256962732</v>
       </c>
       <c r="N11">
-        <v>12.17895900888941</v>
+        <v>19.95385894019554</v>
       </c>
       <c r="O11">
-        <v>16.59395147399105</v>
+        <v>24.62724162828778</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.13531123075819</v>
+        <v>13.43721600239276</v>
       </c>
       <c r="C12">
-        <v>7.930994918943315</v>
+        <v>10.54718450948217</v>
       </c>
       <c r="D12">
-        <v>9.209629251221765</v>
+        <v>6.597021379967178</v>
       </c>
       <c r="E12">
-        <v>8.095050619235925</v>
+        <v>12.9757230917286</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>27.81906806534223</v>
+        <v>34.53684081754089</v>
       </c>
       <c r="H12">
-        <v>9.647691472434405</v>
+        <v>15.64966235783011</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.61772902016273</v>
+        <v>9.578522823244107</v>
       </c>
       <c r="L12">
-        <v>6.634802879425215</v>
+        <v>9.90833039965413</v>
       </c>
       <c r="M12">
-        <v>11.27469240482906</v>
+        <v>14.25780599139667</v>
       </c>
       <c r="N12">
-        <v>12.12242711757496</v>
+        <v>19.93875588733131</v>
       </c>
       <c r="O12">
-        <v>16.6306756295345</v>
+        <v>24.616848076682</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.08877599424855</v>
+        <v>13.42298032233226</v>
       </c>
       <c r="C13">
-        <v>7.929926156124808</v>
+        <v>10.54700833661174</v>
       </c>
       <c r="D13">
-        <v>9.184142944963877</v>
+        <v>6.589188912376859</v>
       </c>
       <c r="E13">
-        <v>8.093596827628897</v>
+        <v>12.97692331349145</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>27.78486075786291</v>
+        <v>34.53614612657592</v>
       </c>
       <c r="H13">
-        <v>9.64750471699535</v>
+        <v>15.65148641348296</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.58525933729175</v>
+        <v>9.567739190422099</v>
       </c>
       <c r="L13">
-        <v>6.628398184120113</v>
+        <v>9.90821085817872</v>
       </c>
       <c r="M13">
-        <v>11.25454076267506</v>
+        <v>14.25491579032172</v>
       </c>
       <c r="N13">
-        <v>12.13458977905018</v>
+        <v>19.94199753308894</v>
       </c>
       <c r="O13">
-        <v>16.62266753893545</v>
+        <v>24.61905571458359</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.93622737279833</v>
+        <v>13.37649982683857</v>
       </c>
       <c r="C14">
-        <v>7.926461229049169</v>
+        <v>10.54644090817976</v>
       </c>
       <c r="D14">
-        <v>9.100619857543746</v>
+        <v>6.563618577488317</v>
       </c>
       <c r="E14">
-        <v>8.088975046701179</v>
+        <v>12.98088143653828</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>27.67385348052352</v>
+        <v>34.53411000795366</v>
       </c>
       <c r="H14">
-        <v>9.647075961508516</v>
+        <v>15.65749189430787</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.47886196717067</v>
+        <v>9.532515653571064</v>
       </c>
       <c r="L14">
-        <v>6.607551311819597</v>
+        <v>9.907853825931008</v>
       </c>
       <c r="M14">
-        <v>11.1886872100586</v>
+        <v>14.24553650079409</v>
       </c>
       <c r="N14">
-        <v>12.17430242662001</v>
+        <v>19.95261141438163</v>
       </c>
       <c r="O14">
-        <v>16.5969283409577</v>
+        <v>24.62637266673235</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.84218117672713</v>
+        <v>13.34798816046247</v>
       </c>
       <c r="C15">
-        <v>7.924354604101127</v>
+        <v>10.54609881302486</v>
       </c>
       <c r="D15">
-        <v>9.04914644540616</v>
+        <v>6.547935981915666</v>
       </c>
       <c r="E15">
-        <v>8.086235402507077</v>
+        <v>12.98333967035587</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>27.60628150405901</v>
+        <v>34.53303914866141</v>
       </c>
       <c r="H15">
-        <v>9.646950976501367</v>
+        <v>15.66121410187624</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.41330104918806</v>
+        <v>9.510898196859301</v>
       </c>
       <c r="L15">
-        <v>6.594813182102446</v>
+        <v>9.907660370672595</v>
       </c>
       <c r="M15">
-        <v>11.14824765736269</v>
+        <v>14.23982711735461</v>
       </c>
       <c r="N15">
-        <v>12.19866461846819</v>
+        <v>19.95914514708682</v>
       </c>
       <c r="O15">
-        <v>16.58145061484137</v>
+        <v>24.63094468362936</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.29391737108666</v>
+        <v>13.18401771053808</v>
       </c>
       <c r="C16">
-        <v>7.912522034943483</v>
+        <v>10.54422259143792</v>
       </c>
       <c r="D16">
-        <v>8.74934982428103</v>
+        <v>6.457787166399072</v>
       </c>
       <c r="E16">
-        <v>8.071919709085364</v>
+        <v>12.99794463119661</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.22555628078288</v>
+        <v>34.52960612461272</v>
       </c>
       <c r="H16">
-        <v>9.64830738481367</v>
+        <v>15.6832140638076</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.03162501202185</v>
+        <v>9.386407945690308</v>
       </c>
       <c r="L16">
-        <v>6.522305181087399</v>
+        <v>9.90693934383868</v>
       </c>
       <c r="M16">
-        <v>10.91498478504265</v>
+        <v>14.20766174070404</v>
       </c>
       <c r="N16">
-        <v>12.33886260282505</v>
+        <v>19.9970851180006</v>
       </c>
       <c r="O16">
-        <v>16.49711566132785</v>
+        <v>24.6585265925678</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.9492147624192</v>
+        <v>13.08296032592107</v>
       </c>
       <c r="C17">
-        <v>7.905475242041393</v>
+        <v>10.54314706965024</v>
       </c>
       <c r="D17">
-        <v>8.561104359710381</v>
+        <v>6.402267452943692</v>
       </c>
       <c r="E17">
-        <v>8.064355371530823</v>
+        <v>13.00736659968514</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>26.99781197098153</v>
+        <v>34.52991345130038</v>
       </c>
       <c r="H17">
-        <v>9.650949054374298</v>
+        <v>15.69730777343008</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.79214728515162</v>
+        <v>9.309532077444509</v>
       </c>
       <c r="L17">
-        <v>6.478272536779811</v>
+        <v>9.906843680497019</v>
       </c>
       <c r="M17">
-        <v>10.77058484659735</v>
+        <v>14.1884285597193</v>
       </c>
       <c r="N17">
-        <v>12.42541587699257</v>
+        <v>20.02080514227212</v>
       </c>
       <c r="O17">
-        <v>16.44920807799728</v>
+        <v>24.6766793008719</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.74786222992625</v>
+        <v>13.02468429331654</v>
       </c>
       <c r="C18">
-        <v>7.901499395386854</v>
+        <v>10.54255633764432</v>
       </c>
       <c r="D18">
-        <v>8.451229098474769</v>
+        <v>6.370267390066005</v>
       </c>
       <c r="E18">
-        <v>8.0604452909885</v>
+        <v>13.01295585264931</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>26.86896323104125</v>
+        <v>34.53097733528789</v>
       </c>
       <c r="H18">
-        <v>9.653117794611447</v>
+        <v>15.70563367690843</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.65244656599377</v>
+        <v>9.265145113054192</v>
       </c>
       <c r="L18">
-        <v>6.453115915264744</v>
+        <v>9.906916367665618</v>
       </c>
       <c r="M18">
-        <v>10.68707512274968</v>
+        <v>14.17755193819195</v>
       </c>
       <c r="N18">
-        <v>12.47540818060742</v>
+        <v>20.03461219408073</v>
       </c>
       <c r="O18">
-        <v>16.42303480728079</v>
+        <v>24.68757277081934</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.67915570688722</v>
+        <v>13.00492921370148</v>
       </c>
       <c r="C19">
-        <v>7.900166454183791</v>
+        <v>10.54236112765217</v>
       </c>
       <c r="D19">
-        <v>8.41375121434851</v>
+        <v>6.359422529580098</v>
       </c>
       <c r="E19">
-        <v>8.059196448766331</v>
+        <v>13.0148774814785</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>26.82570589669719</v>
+        <v>34.53148991890036</v>
       </c>
       <c r="H19">
-        <v>9.653962139551274</v>
+        <v>15.70849039819935</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.60480983830773</v>
+        <v>9.250088765914152</v>
       </c>
       <c r="L19">
-        <v>6.444627946014371</v>
+        <v>9.906962941407562</v>
       </c>
       <c r="M19">
-        <v>10.65872439650586</v>
+        <v>14.17390142868497</v>
       </c>
       <c r="N19">
-        <v>12.49237141426755</v>
+        <v>20.03931521205175</v>
       </c>
       <c r="O19">
-        <v>16.41440789196807</v>
+        <v>24.69133880375216</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.98622824934287</v>
+        <v>13.09373411386334</v>
       </c>
       <c r="C20">
-        <v>7.906217372104065</v>
+        <v>10.54325867851879</v>
       </c>
       <c r="D20">
-        <v>8.581308926200084</v>
+        <v>6.40818480852356</v>
       </c>
       <c r="E20">
-        <v>8.065114840016149</v>
+        <v>13.00634602421044</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.02183398116929</v>
+        <v>34.5297889250268</v>
       </c>
       <c r="H20">
-        <v>9.650600290390731</v>
+        <v>15.69578474915869</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.81784290789737</v>
+        <v>9.317733596952001</v>
       </c>
       <c r="L20">
-        <v>6.482942425514998</v>
+        <v>9.90684065339477</v>
       </c>
       <c r="M20">
-        <v>10.78600407180578</v>
+        <v>14.19045678738396</v>
       </c>
       <c r="N20">
-        <v>12.41618067275963</v>
+        <v>20.01826314799191</v>
       </c>
       <c r="O20">
-        <v>16.45416432287012</v>
+        <v>24.67470007414223</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.98116074820481</v>
+        <v>13.39016093531832</v>
       </c>
       <c r="C21">
-        <v>7.927475677278061</v>
+        <v>10.54660643627493</v>
       </c>
       <c r="D21">
-        <v>9.125217806359188</v>
+        <v>6.571133446311695</v>
       </c>
       <c r="E21">
-        <v>8.090313505091027</v>
+        <v>12.97971180294223</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>27.70637085753535</v>
+        <v>34.53467132302404</v>
       </c>
       <c r="H21">
-        <v>9.647173124317888</v>
+        <v>15.65571883684156</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.5101946052946</v>
+        <v>9.542870499927405</v>
       </c>
       <c r="L21">
-        <v>6.613668071807751</v>
+        <v>9.907953437393328</v>
       </c>
       <c r="M21">
-        <v>11.20805143706276</v>
+        <v>14.24828399863535</v>
       </c>
       <c r="N21">
-        <v>12.16263018763886</v>
+        <v>19.94948710499749</v>
       </c>
       <c r="O21">
-        <v>16.60442835612498</v>
+        <v>24.62420470735781</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.60425031357491</v>
+        <v>13.58211307040566</v>
       </c>
       <c r="C22">
-        <v>7.942072002826768</v>
+        <v>10.54903964565136</v>
       </c>
       <c r="D22">
-        <v>9.466652050279537</v>
+        <v>6.676767758955807</v>
       </c>
       <c r="E22">
-        <v>8.110851653612789</v>
+        <v>12.96381648128398</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.17271291860479</v>
+        <v>34.54575480088399</v>
       </c>
       <c r="H22">
-        <v>9.651051291953049</v>
+        <v>15.63148837671804</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.94525377737797</v>
+        <v>9.688171148367978</v>
       </c>
       <c r="L22">
-        <v>6.700513623023774</v>
+        <v>9.909811124445168</v>
       </c>
       <c r="M22">
-        <v>11.47936347882418</v>
+        <v>14.28768170180059</v>
       </c>
       <c r="N22">
-        <v>11.9986012739442</v>
+        <v>19.90599015830113</v>
       </c>
       <c r="O22">
-        <v>16.7154697406723</v>
+        <v>24.59523824422006</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.27416336846734</v>
+        <v>13.47984811950628</v>
       </c>
       <c r="C23">
-        <v>7.934216616855859</v>
+        <v>10.54771870139369</v>
       </c>
       <c r="D23">
-        <v>9.285696188617223</v>
+        <v>6.620480203925763</v>
       </c>
       <c r="E23">
-        <v>8.099510747960997</v>
+        <v>12.97216189662684</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>27.9220901669944</v>
+        <v>34.5391177356871</v>
       </c>
       <c r="H23">
-        <v>9.648405163295878</v>
+        <v>15.64424177292454</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.71464758931337</v>
+        <v>9.610804962977291</v>
       </c>
       <c r="L23">
-        <v>6.654038506690776</v>
+        <v>9.908716554125373</v>
       </c>
       <c r="M23">
-        <v>11.33499360565293</v>
+        <v>14.26651010571888</v>
       </c>
       <c r="N23">
-        <v>12.08600187924795</v>
+        <v>19.92907278565871</v>
       </c>
       <c r="O23">
-        <v>16.65500548362895</v>
+        <v>24.61032872916733</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.9695043557737</v>
+        <v>13.08886383002906</v>
       </c>
       <c r="C24">
-        <v>7.905881620254314</v>
+        <v>10.54320813415093</v>
       </c>
       <c r="D24">
-        <v>8.57217958483538</v>
+        <v>6.405509821446219</v>
       </c>
       <c r="E24">
-        <v>8.064770119293106</v>
+        <v>13.00680688924075</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.01096713628631</v>
+        <v>34.52984245974508</v>
       </c>
       <c r="H24">
-        <v>9.6507559456516</v>
+        <v>15.69647261303752</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.8062322142718</v>
+        <v>9.314026278101954</v>
       </c>
       <c r="L24">
-        <v>6.480830674489274</v>
+        <v>9.906841624151161</v>
       </c>
       <c r="M24">
-        <v>10.7790345679245</v>
+        <v>14.18953926196411</v>
       </c>
       <c r="N24">
-        <v>12.42035518501131</v>
+        <v>20.01941185368064</v>
       </c>
       <c r="O24">
-        <v>16.45191934503618</v>
+        <v>24.67559345834625</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.44393283802417</v>
+        <v>12.66165892499734</v>
       </c>
       <c r="C25">
-        <v>7.878265233399645</v>
+        <v>10.53941036614441</v>
       </c>
       <c r="D25">
-        <v>7.741186271310774</v>
+        <v>6.171262501443554</v>
       </c>
       <c r="E25">
-        <v>8.044057958793969</v>
+        <v>13.050677042667</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>26.11012901667031</v>
+        <v>34.55374669309602</v>
       </c>
       <c r="H25">
-        <v>9.677927599015664</v>
+        <v>15.76120694125001</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.75150177599415</v>
+        <v>8.987621305450974</v>
       </c>
       <c r="L25">
-        <v>6.300552300741042</v>
+        <v>9.909705023933956</v>
       </c>
       <c r="M25">
-        <v>10.16233575233522</v>
+        <v>14.11364324033807</v>
       </c>
       <c r="N25">
-        <v>12.78910049475163</v>
+        <v>20.12312901859702</v>
       </c>
       <c r="O25">
-        <v>16.28534185829011</v>
+        <v>24.76328769911588</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_179/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_179/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.34488412926216</v>
+        <v>13.2169206603906</v>
       </c>
       <c r="C2">
-        <v>10.53754694196525</v>
+        <v>7.860390444111431</v>
       </c>
       <c r="D2">
-        <v>5.998283038567663</v>
+        <v>7.075321001205682</v>
       </c>
       <c r="E2">
-        <v>13.088582084101</v>
+        <v>8.042413374157418</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>34.60046559357446</v>
+        <v>25.51727836612663</v>
       </c>
       <c r="H2">
-        <v>15.81609794807873</v>
+        <v>9.717365233200857</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.743748939633958</v>
+        <v>10.91075119627913</v>
       </c>
       <c r="L2">
-        <v>9.916044921239543</v>
+        <v>6.173979790658905</v>
       </c>
       <c r="M2">
-        <v>14.06412561640813</v>
+        <v>9.696699898978967</v>
       </c>
       <c r="N2">
-        <v>20.20494549051299</v>
+        <v>13.06852264971116</v>
       </c>
       <c r="O2">
-        <v>24.84269747074645</v>
+        <v>16.20470546188079</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.13014762780094</v>
+        <v>12.33142078566418</v>
       </c>
       <c r="C3">
-        <v>10.53687347929094</v>
+        <v>7.84977656594176</v>
       </c>
       <c r="D3">
-        <v>5.881568747071912</v>
+        <v>6.589760549027915</v>
       </c>
       <c r="E3">
-        <v>13.11777255556099</v>
+        <v>8.049370968158293</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.65023836534969</v>
+        <v>25.15901247416174</v>
       </c>
       <c r="H3">
-        <v>15.85780999390773</v>
+        <v>9.755360662654541</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.577283378249001</v>
+        <v>10.30135721538243</v>
       </c>
       <c r="L3">
-        <v>9.922994243321313</v>
+        <v>6.092308247184853</v>
       </c>
       <c r="M3">
-        <v>14.03464532889443</v>
+        <v>9.375806797280474</v>
       </c>
       <c r="N3">
-        <v>20.26382100262406</v>
+        <v>13.26327320117144</v>
       </c>
       <c r="O3">
-        <v>24.90575112223637</v>
+        <v>16.174591185887</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.99873679461833</v>
+        <v>11.80491320864645</v>
       </c>
       <c r="C4">
-        <v>10.53675326343288</v>
+        <v>7.843989418418039</v>
       </c>
       <c r="D4">
-        <v>5.810450533656493</v>
+        <v>6.279886817664784</v>
       </c>
       <c r="E4">
-        <v>13.13742495078687</v>
+        <v>8.057484987259111</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>34.68970678908941</v>
+        <v>24.96021331221151</v>
       </c>
       <c r="H4">
-        <v>15.8856479508427</v>
+        <v>9.783974107404394</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.474846217240705</v>
+        <v>9.90790286450245</v>
       </c>
       <c r="L4">
-        <v>9.92857355745571</v>
+        <v>6.04427035941172</v>
       </c>
       <c r="M4">
-        <v>14.01858958889535</v>
+        <v>9.176881385016216</v>
       </c>
       <c r="N4">
-        <v>20.30167064027578</v>
+        <v>13.38564389565385</v>
       </c>
       <c r="O4">
-        <v>24.9490146918185</v>
+        <v>16.16761987362786</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.94536795603046</v>
+        <v>11.58421007397626</v>
       </c>
       <c r="C5">
-        <v>10.53677843628117</v>
+        <v>7.841813308702871</v>
       </c>
       <c r="D5">
-        <v>5.781651152467171</v>
+        <v>6.167252256774265</v>
       </c>
       <c r="E5">
-        <v>13.14586860470865</v>
+        <v>8.061736850369599</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>34.70802609415936</v>
+        <v>24.8844677586677</v>
       </c>
       <c r="H5">
-        <v>15.89755217712374</v>
+        <v>9.796923391038668</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.433101588323026</v>
+        <v>9.742772361323391</v>
       </c>
       <c r="L5">
-        <v>9.931177781269209</v>
+        <v>6.025236660541854</v>
       </c>
       <c r="M5">
-        <v>14.01256600316368</v>
+        <v>9.095462099420853</v>
       </c>
       <c r="N5">
-        <v>20.31752334209003</v>
+        <v>13.43623230710482</v>
       </c>
       <c r="O5">
-        <v>24.96778746740788</v>
+        <v>16.1675870007742</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.93651921758548</v>
+        <v>11.54719512073334</v>
       </c>
       <c r="C6">
-        <v>10.53678710738985</v>
+        <v>7.841462934405237</v>
       </c>
       <c r="D6">
-        <v>5.776881340208949</v>
+        <v>6.148394183500399</v>
       </c>
       <c r="E6">
-        <v>13.14729695682007</v>
+        <v>8.06249935485981</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>34.71120288168336</v>
+        <v>24.8722062866883</v>
       </c>
       <c r="H6">
-        <v>15.89956269335421</v>
+        <v>9.799150326577589</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.426171553186707</v>
+        <v>9.715064890174476</v>
       </c>
       <c r="L6">
-        <v>9.931630194636284</v>
+        <v>6.022109196172923</v>
       </c>
       <c r="M6">
-        <v>14.0115972909392</v>
+        <v>9.081924728102971</v>
       </c>
       <c r="N6">
-        <v>20.32018159778107</v>
+        <v>13.44467658462859</v>
       </c>
       <c r="O6">
-        <v>24.97097364059271</v>
+        <v>16.16774850992588</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.99801621075102</v>
+        <v>11.8019614470693</v>
       </c>
       <c r="C7">
-        <v>10.5367533020998</v>
+        <v>7.843959334613445</v>
       </c>
       <c r="D7">
-        <v>5.810061339170534</v>
+        <v>6.278378264016562</v>
       </c>
       <c r="E7">
-        <v>13.13753706259834</v>
+        <v>8.057538529278531</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>34.68994480417011</v>
+        <v>24.95917054747698</v>
       </c>
       <c r="H7">
-        <v>15.88580622767606</v>
+        <v>9.784143578199936</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.474283161963902</v>
+        <v>9.90569518659523</v>
       </c>
       <c r="L7">
-        <v>9.92860733957032</v>
+        <v>6.044011454406682</v>
       </c>
       <c r="M7">
-        <v>14.01850624397643</v>
+        <v>9.175784609070373</v>
       </c>
       <c r="N7">
-        <v>20.30188269806956</v>
+        <v>13.38632320326925</v>
       </c>
       <c r="O7">
-        <v>24.94926324369416</v>
+        <v>16.16760817929396</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.27079493419088</v>
+        <v>12.91431171091421</v>
       </c>
       <c r="C8">
-        <v>10.537254105035</v>
+        <v>7.856578485814889</v>
       </c>
       <c r="D8">
-        <v>5.957953635132041</v>
+        <v>6.911434629306125</v>
       </c>
       <c r="E8">
-        <v>13.09828821519575</v>
+        <v>8.044002482675214</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.61577610937546</v>
+        <v>25.38932332526179</v>
       </c>
       <c r="H8">
-        <v>15.83001821852253</v>
+        <v>9.729345172354941</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.686432070498231</v>
+        <v>10.70466241475937</v>
       </c>
       <c r="L8">
-        <v>9.918169032307656</v>
+        <v>6.145389214509546</v>
       </c>
       <c r="M8">
-        <v>14.05353939625256</v>
+        <v>9.586519245512086</v>
       </c>
       <c r="N8">
-        <v>20.22489371009615</v>
+        <v>13.13510465313294</v>
       </c>
       <c r="O8">
-        <v>24.86349366055815</v>
+        <v>16.19187869694105</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.80608099710406</v>
+        <v>14.9738067536606</v>
       </c>
       <c r="C9">
-        <v>10.54054573215861</v>
+        <v>7.887181093097957</v>
       </c>
       <c r="D9">
-        <v>6.250353991795447</v>
+        <v>8.029415530251498</v>
       </c>
       <c r="E9">
-        <v>13.03502971112377</v>
+        <v>8.048866718257518</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>34.54116645714353</v>
+        <v>26.40261355803397</v>
       </c>
       <c r="H9">
-        <v>15.73827884621939</v>
+        <v>9.665640608067234</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.098251494392358</v>
+        <v>12.1167868308746</v>
       </c>
       <c r="L9">
-        <v>9.908085026228994</v>
+        <v>6.360357208860227</v>
       </c>
       <c r="M9">
-        <v>14.13823541768264</v>
+        <v>10.3720939870184</v>
       </c>
       <c r="N9">
-        <v>20.08734883865613</v>
+        <v>12.66371989929438</v>
       </c>
       <c r="O9">
-        <v>24.7314398608239</v>
+        <v>16.33471182628338</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.19552713119145</v>
+        <v>16.33283297950988</v>
       </c>
       <c r="C10">
-        <v>10.54434908352278</v>
+        <v>7.913336642571736</v>
       </c>
       <c r="D10">
-        <v>6.464112385317796</v>
+        <v>8.770613676382812</v>
       </c>
       <c r="E10">
-        <v>12.99689254601012</v>
+        <v>8.072843068775583</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>34.52969125275679</v>
+        <v>27.25183360147227</v>
       </c>
       <c r="H10">
-        <v>15.681635625464</v>
+        <v>9.648095069072781</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.395155838884801</v>
+        <v>13.05868555019929</v>
       </c>
       <c r="L10">
-        <v>9.906967542477824</v>
+        <v>6.527352262571108</v>
       </c>
       <c r="M10">
-        <v>14.20988138893889</v>
+        <v>10.93139848277526</v>
       </c>
       <c r="N10">
-        <v>19.99440068424357</v>
+        <v>12.32901401188825</v>
       </c>
       <c r="O10">
-        <v>24.65651657997451</v>
+        <v>16.50277134847522</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.37104991791745</v>
+        <v>16.91827882350853</v>
       </c>
       <c r="C11">
-        <v>10.54637516432672</v>
+        <v>7.926057445500315</v>
       </c>
       <c r="D11">
-        <v>6.560620749481568</v>
+        <v>9.090795157522557</v>
       </c>
       <c r="E11">
-        <v>12.98134952291793</v>
+        <v>8.088445738775338</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>34.53389476749058</v>
+        <v>27.66090653559617</v>
       </c>
       <c r="H11">
-        <v>15.65820110362894</v>
+        <v>9.647043927423036</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.528384198229874</v>
+        <v>13.46634781681795</v>
       </c>
       <c r="L11">
-        <v>9.907815333796805</v>
+        <v>6.605113532850545</v>
       </c>
       <c r="M11">
-        <v>14.24444256962732</v>
+        <v>11.18095996142332</v>
       </c>
       <c r="N11">
-        <v>19.95385894019554</v>
+        <v>12.17895900888927</v>
       </c>
       <c r="O11">
-        <v>24.62724162828778</v>
+        <v>16.59395147399087</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.43721600239276</v>
+        <v>17.13531123075821</v>
       </c>
       <c r="C12">
-        <v>10.54718450948217</v>
+        <v>7.930994918943181</v>
       </c>
       <c r="D12">
-        <v>6.597021379967178</v>
+        <v>9.209629251221816</v>
       </c>
       <c r="E12">
-        <v>12.9757230917286</v>
+        <v>8.09505061923592</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>34.53684081754089</v>
+        <v>27.81906806534209</v>
       </c>
       <c r="H12">
-        <v>15.64966235783011</v>
+        <v>9.647691472434351</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.578522823244107</v>
+        <v>13.61772902016275</v>
       </c>
       <c r="L12">
-        <v>9.90833039965413</v>
+        <v>6.634802879425232</v>
       </c>
       <c r="M12">
-        <v>14.25780599139667</v>
+        <v>11.27469240482904</v>
       </c>
       <c r="N12">
-        <v>19.93875588733131</v>
+        <v>12.12242711757493</v>
       </c>
       <c r="O12">
-        <v>24.616848076682</v>
+        <v>16.63067562953443</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.42298032233226</v>
+        <v>17.08877599424855</v>
       </c>
       <c r="C13">
-        <v>10.54700833661174</v>
+        <v>7.929926156124803</v>
       </c>
       <c r="D13">
-        <v>6.589188912376859</v>
+        <v>9.184142944963893</v>
       </c>
       <c r="E13">
-        <v>12.97692331349145</v>
+        <v>8.0935968276289</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>34.53614612657592</v>
+        <v>27.78486075786289</v>
       </c>
       <c r="H13">
-        <v>15.65148641348296</v>
+        <v>9.64750471699535</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.567739190422099</v>
+        <v>13.58525933729175</v>
       </c>
       <c r="L13">
-        <v>9.90821085817872</v>
+        <v>6.628398184120115</v>
       </c>
       <c r="M13">
-        <v>14.25491579032172</v>
+        <v>11.25454076267505</v>
       </c>
       <c r="N13">
-        <v>19.94199753308894</v>
+        <v>12.13458977905018</v>
       </c>
       <c r="O13">
-        <v>24.61905571458359</v>
+        <v>16.62266753893544</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.37649982683857</v>
+        <v>16.93622737279833</v>
       </c>
       <c r="C14">
-        <v>10.54644090817976</v>
+        <v>7.926461229049298</v>
       </c>
       <c r="D14">
-        <v>6.563618577488317</v>
+        <v>9.100619857543709</v>
       </c>
       <c r="E14">
-        <v>12.98088143653828</v>
+        <v>8.088975046701227</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>34.53411000795366</v>
+        <v>27.67385348052363</v>
       </c>
       <c r="H14">
-        <v>15.65749189430787</v>
+        <v>9.647075961508458</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.532515653571064</v>
+        <v>13.47886196717068</v>
       </c>
       <c r="L14">
-        <v>9.907853825931008</v>
+        <v>6.607551311819634</v>
       </c>
       <c r="M14">
-        <v>14.24553650079409</v>
+        <v>11.18868721005859</v>
       </c>
       <c r="N14">
-        <v>19.95261141438163</v>
+        <v>12.17430242662004</v>
       </c>
       <c r="O14">
-        <v>24.62637266673235</v>
+        <v>16.59692834095769</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.34798816046247</v>
+        <v>16.84218117672715</v>
       </c>
       <c r="C15">
-        <v>10.54609881302486</v>
+        <v>7.924354604101001</v>
       </c>
       <c r="D15">
-        <v>6.547935981915666</v>
+        <v>9.049146445406139</v>
       </c>
       <c r="E15">
-        <v>12.98333967035587</v>
+        <v>8.086235402507027</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>34.53303914866141</v>
+        <v>27.6062815040589</v>
       </c>
       <c r="H15">
-        <v>15.66121410187624</v>
+        <v>9.64695097650147</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.510898196859301</v>
+        <v>13.41330104918805</v>
       </c>
       <c r="L15">
-        <v>9.907660370672595</v>
+        <v>6.594813182102452</v>
       </c>
       <c r="M15">
-        <v>14.23982711735461</v>
+        <v>11.14824765736267</v>
       </c>
       <c r="N15">
-        <v>19.95914514708682</v>
+        <v>12.19866461846823</v>
       </c>
       <c r="O15">
-        <v>24.63094468362936</v>
+        <v>16.58145061484135</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.18401771053808</v>
+        <v>16.29391737108667</v>
       </c>
       <c r="C16">
-        <v>10.54422259143792</v>
+        <v>7.912522034943471</v>
       </c>
       <c r="D16">
-        <v>6.457787166399072</v>
+        <v>8.749349824281046</v>
       </c>
       <c r="E16">
-        <v>12.99794463119661</v>
+        <v>8.071919709085366</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>34.52960612461272</v>
+        <v>27.22555628078258</v>
       </c>
       <c r="H16">
-        <v>15.6832140638076</v>
+        <v>9.64830738481367</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.386407945690308</v>
+        <v>13.03162501202188</v>
       </c>
       <c r="L16">
-        <v>9.90693934383868</v>
+        <v>6.522305181087394</v>
       </c>
       <c r="M16">
-        <v>14.20766174070404</v>
+        <v>10.91498478504263</v>
       </c>
       <c r="N16">
-        <v>19.9970851180006</v>
+        <v>12.33886260282496</v>
       </c>
       <c r="O16">
-        <v>24.6585265925678</v>
+        <v>16.49711566132772</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.08296032592107</v>
+        <v>15.94921476241921</v>
       </c>
       <c r="C17">
-        <v>10.54314706965024</v>
+        <v>7.905475242041399</v>
       </c>
       <c r="D17">
-        <v>6.402267452943692</v>
+        <v>8.561104359710409</v>
       </c>
       <c r="E17">
-        <v>13.00736659968514</v>
+        <v>8.06435537153088</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>34.52991345130038</v>
+        <v>26.99781197098143</v>
       </c>
       <c r="H17">
-        <v>15.69730777343008</v>
+        <v>9.650949054374308</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.309532077444509</v>
+        <v>12.79214728515164</v>
       </c>
       <c r="L17">
-        <v>9.906843680497019</v>
+        <v>6.478272536779831</v>
       </c>
       <c r="M17">
-        <v>14.1884285597193</v>
+        <v>10.77058484659739</v>
       </c>
       <c r="N17">
-        <v>20.02080514227212</v>
+        <v>12.4254158769925</v>
       </c>
       <c r="O17">
-        <v>24.6766793008719</v>
+        <v>16.44920807799722</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.02468429331654</v>
+        <v>15.74786222992632</v>
       </c>
       <c r="C18">
-        <v>10.54255633764432</v>
+        <v>7.901499395386588</v>
       </c>
       <c r="D18">
-        <v>6.370267390066005</v>
+        <v>8.4512290984748</v>
       </c>
       <c r="E18">
-        <v>13.01295585264931</v>
+        <v>8.060445290988504</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>34.53097733528789</v>
+        <v>26.86896323104099</v>
       </c>
       <c r="H18">
-        <v>15.70563367690843</v>
+        <v>9.653117794611351</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.265145113054192</v>
+        <v>12.65244656599382</v>
       </c>
       <c r="L18">
-        <v>9.906916367665618</v>
+        <v>6.453115915264796</v>
       </c>
       <c r="M18">
-        <v>14.17755193819195</v>
+        <v>10.68707512274967</v>
       </c>
       <c r="N18">
-        <v>20.03461219408073</v>
+        <v>12.47540818060729</v>
       </c>
       <c r="O18">
-        <v>24.68757277081934</v>
+        <v>16.42303480728058</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.00492921370148</v>
+        <v>15.67915570688718</v>
       </c>
       <c r="C19">
-        <v>10.54236112765217</v>
+        <v>7.900166454184047</v>
       </c>
       <c r="D19">
-        <v>6.359422529580098</v>
+        <v>8.413751214348443</v>
       </c>
       <c r="E19">
-        <v>13.0148774814785</v>
+        <v>8.05919644876659</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>34.53148991890036</v>
+        <v>26.8257058966972</v>
       </c>
       <c r="H19">
-        <v>15.70849039819935</v>
+        <v>9.653962139551263</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.250088765914152</v>
+        <v>12.60480983830773</v>
       </c>
       <c r="L19">
-        <v>9.906962941407562</v>
+        <v>6.444627946014441</v>
       </c>
       <c r="M19">
-        <v>14.17390142868497</v>
+        <v>10.6587243965059</v>
       </c>
       <c r="N19">
-        <v>20.03931521205175</v>
+        <v>12.49237141426758</v>
       </c>
       <c r="O19">
-        <v>24.69133880375216</v>
+        <v>16.41440789196806</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.09373411386334</v>
+        <v>15.98622824934285</v>
       </c>
       <c r="C20">
-        <v>10.54325867851879</v>
+        <v>7.906217372104065</v>
       </c>
       <c r="D20">
-        <v>6.40818480852356</v>
+        <v>8.581308926200164</v>
       </c>
       <c r="E20">
-        <v>13.00634602421044</v>
+        <v>8.065114840016149</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>34.5297889250268</v>
+        <v>27.0218339811693</v>
       </c>
       <c r="H20">
-        <v>15.69578474915869</v>
+        <v>9.650600290390683</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.317733596952001</v>
+        <v>12.81784290789737</v>
       </c>
       <c r="L20">
-        <v>9.90684065339477</v>
+        <v>6.482942425514983</v>
       </c>
       <c r="M20">
-        <v>14.19045678738396</v>
+        <v>10.78600407180578</v>
       </c>
       <c r="N20">
-        <v>20.01826314799191</v>
+        <v>12.41618067275956</v>
       </c>
       <c r="O20">
-        <v>24.67470007414223</v>
+        <v>16.45416432287008</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.39016093531832</v>
+        <v>16.98116074820481</v>
       </c>
       <c r="C21">
-        <v>10.54660643627493</v>
+        <v>7.927475677278208</v>
       </c>
       <c r="D21">
-        <v>6.571133446311695</v>
+        <v>9.125217806359135</v>
       </c>
       <c r="E21">
-        <v>12.97971180294223</v>
+        <v>8.09031350509107</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>34.53467132302404</v>
+        <v>27.70637085753537</v>
       </c>
       <c r="H21">
-        <v>15.65571883684156</v>
+        <v>9.647173124317888</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.542870499927405</v>
+        <v>13.51019460529464</v>
       </c>
       <c r="L21">
-        <v>9.907953437393328</v>
+        <v>6.613668071807731</v>
       </c>
       <c r="M21">
-        <v>14.24828399863535</v>
+        <v>11.20805143706276</v>
       </c>
       <c r="N21">
-        <v>19.94948710499749</v>
+        <v>12.16263018763889</v>
       </c>
       <c r="O21">
-        <v>24.62420470735781</v>
+        <v>16.60442835612497</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.58211307040566</v>
+        <v>17.6042503135749</v>
       </c>
       <c r="C22">
-        <v>10.54903964565136</v>
+        <v>7.942072002826643</v>
       </c>
       <c r="D22">
-        <v>6.676767758955807</v>
+        <v>9.466652050279546</v>
       </c>
       <c r="E22">
-        <v>12.96381648128398</v>
+        <v>8.110851653612777</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>34.54575480088399</v>
+        <v>28.1727129186049</v>
       </c>
       <c r="H22">
-        <v>15.63148837671804</v>
+        <v>9.651051291953111</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.688171148367978</v>
+        <v>13.94525377737793</v>
       </c>
       <c r="L22">
-        <v>9.909811124445168</v>
+        <v>6.700513623023785</v>
       </c>
       <c r="M22">
-        <v>14.28768170180059</v>
+        <v>11.47936347882418</v>
       </c>
       <c r="N22">
-        <v>19.90599015830113</v>
+        <v>11.99860127394427</v>
       </c>
       <c r="O22">
-        <v>24.59523824422006</v>
+        <v>16.71546974067238</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.47984811950628</v>
+        <v>17.27416336846742</v>
       </c>
       <c r="C23">
-        <v>10.54771870139369</v>
+        <v>7.934216616855863</v>
       </c>
       <c r="D23">
-        <v>6.620480203925763</v>
+        <v>9.285696188617177</v>
       </c>
       <c r="E23">
-        <v>12.97216189662684</v>
+        <v>8.099510747960997</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>34.5391177356871</v>
+        <v>27.92209016699428</v>
       </c>
       <c r="H23">
-        <v>15.64424177292454</v>
+        <v>9.648405163295829</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.610804962977291</v>
+        <v>13.71464758931343</v>
       </c>
       <c r="L23">
-        <v>9.908716554125373</v>
+        <v>6.654038506690831</v>
       </c>
       <c r="M23">
-        <v>14.26651010571888</v>
+        <v>11.33499360565291</v>
       </c>
       <c r="N23">
-        <v>19.92907278565871</v>
+        <v>12.08600187924785</v>
       </c>
       <c r="O23">
-        <v>24.61032872916733</v>
+        <v>16.65500548362879</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.08886383002906</v>
+        <v>15.96950435577371</v>
       </c>
       <c r="C24">
-        <v>10.54320813415093</v>
+        <v>7.905881620254459</v>
       </c>
       <c r="D24">
-        <v>6.405509821446219</v>
+        <v>8.572179584835315</v>
       </c>
       <c r="E24">
-        <v>13.00680688924075</v>
+        <v>8.064770119293057</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>34.52984245974508</v>
+        <v>27.01096713628635</v>
       </c>
       <c r="H24">
-        <v>15.69647261303752</v>
+        <v>9.650755945651555</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.314026278101954</v>
+        <v>12.80623221427188</v>
       </c>
       <c r="L24">
-        <v>9.906841624151161</v>
+        <v>6.480830674489181</v>
       </c>
       <c r="M24">
-        <v>14.18953926196411</v>
+        <v>10.77903456792447</v>
       </c>
       <c r="N24">
-        <v>20.01941185368064</v>
+        <v>12.42035518501134</v>
       </c>
       <c r="O24">
-        <v>24.67559345834625</v>
+        <v>16.45191934503615</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.66165892499734</v>
+        <v>14.44393283802419</v>
       </c>
       <c r="C25">
-        <v>10.53941036614441</v>
+        <v>7.878265233399781</v>
       </c>
       <c r="D25">
-        <v>6.171262501443554</v>
+        <v>7.741186271310715</v>
       </c>
       <c r="E25">
-        <v>13.050677042667</v>
+        <v>8.044057958794037</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>34.55374669309602</v>
+        <v>26.11012901667021</v>
       </c>
       <c r="H25">
-        <v>15.76120694125001</v>
+        <v>9.677927599015664</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.987621305450974</v>
+        <v>11.75150177599421</v>
       </c>
       <c r="L25">
-        <v>9.909705023933956</v>
+        <v>6.300552300741051</v>
       </c>
       <c r="M25">
-        <v>14.11364324033807</v>
+        <v>10.16233575233522</v>
       </c>
       <c r="N25">
-        <v>20.12312901859702</v>
+        <v>12.78910049475163</v>
       </c>
       <c r="O25">
-        <v>24.76328769911588</v>
+        <v>16.28534185829005</v>
       </c>
     </row>
   </sheetData>
